--- a/doc/97 实施/PSI实施方法.xlsx
+++ b/doc/97 实施/PSI实施方法.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSI\git\PSI\doc\97 实施\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5CDDCD-971A-4D7F-BC4E-BECC42276E0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PSI实施方法" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,45 +19,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>用思维导图整理功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级模块、二级模块和功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理所有的业务单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用Excel做一个列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理所有的业务流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理所有的报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2到第4步完成后，在review第一步中的功能点是否完整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSI实施方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结一下套路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用思维导图整理功能点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级模块、二级模块和功能点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理所有的业务单据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理所有的业务流程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整理所有的报表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定与现有系统或者外部系统的调用接口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总结一下套路</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>整理</t>
     </r>
     <r>
@@ -73,7 +129,6 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>单据</t>
     </r>
@@ -84,7 +139,6 @@
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -95,7 +149,6 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>流程</t>
     </r>
@@ -106,7 +159,6 @@
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -117,7 +169,6 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>报表</t>
     </r>
@@ -128,7 +179,6 @@
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>之后形成</t>
     </r>
@@ -139,34 +189,274 @@
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>功能树</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定与现有系统或者外部系统的调用接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用xmind来制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用Excel绘制(虽然用Visio会方便一点，但是从减少工具种类角度，扔推荐使用Excel来绘制)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用Excel做一个列表</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>xmind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来制作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做一个列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绘制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虽然用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Visio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会方便一点，但是从减少工具种类角度，仍推荐使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来绘制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PSI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实施方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步完成后，再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一步中的功能点是否完整</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个单据列出其上的所有字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个报表列出其查询条件、展现样式、导出要求和打印要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +473,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,7 +485,34 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,11 +537,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,7 +610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -323,7 +645,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -500,110 +822,124 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:3" ht="38.25" customHeight="1">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="24.95" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="24.95" customHeight="1">
+      <c r="B23" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>